--- a/Files/自动化异常测试用例.xlsx
+++ b/Files/自动化异常测试用例.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_code\pytest-auto-api2\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Study\pytest-auto-api2\utils\otherUtils\allureDate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6617DF60-0614-4AC9-B8CB-1B627947F776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CBA06F-39C1-4D53-A6A8-DEB272ED1A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="16200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="异常用例" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>allureUid</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -91,39 +91,6 @@
   <si>
     <t>响应结果</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7f5e00a37fbb962</t>
-  </si>
-  <si>
-    <t>未登录状态下新增收藏网址</t>
-  </si>
-  <si>
-    <t>https://www.wanandroid.com/lg/collect/addtool/json</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>DATA</t>
-  </si>
-  <si>
-    <t>{'User-Agent': 'python-requests/2.26.0', 'Accept-Encoding': 'gzip, deflate, br', 'Accept': '*/*', 'Connection': 'keep-alive', 'Content-Type': 'multipart/form-data; boundary=c82598951910436692933956ce69ee88', 'Content-Length': '281'}</t>
-  </si>
-  <si>
-    <t>{'name': '自动生成收藏网址4360', 'link': 'https://gitee.com/yu_xiao_qi/pytest-auto-api2'}</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>{'status_code': 200, 'errorCode': {'jsonpath': '$.errorCode', 'type': '==', 'value': -1001, 'AssertType': None}, 'errorMsg': {'jsonpath': '$.errorMsg', 'type': '==', 'value': '请先登录！11', 'AssertType': None}}</t>
-  </si>
-  <si>
-    <t>180ms</t>
-  </si>
-  <si>
-    <t>{"errorCode":-1001,"errorMsg":"请先登录！"}</t>
   </si>
 </sst>
 </file>
@@ -522,28 +489,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D30E69-722C-4FC7-8150-9A3FA348B198}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.9140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" style="5" customWidth="1"/>
     <col min="2" max="2" width="20" style="5" customWidth="1"/>
-    <col min="3" max="3" width="28.4140625" style="5" customWidth="1"/>
-    <col min="4" max="5" width="8.9140625" style="5"/>
-    <col min="6" max="6" width="24.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="5"/>
+    <col min="6" max="6" width="24.77734375" style="5" customWidth="1"/>
     <col min="7" max="7" width="29.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.08203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="23.4140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="22.58203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8.9140625" style="5"/>
-    <col min="12" max="12" width="23.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="22.5546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="5"/>
+    <col min="12" max="12" width="23.21875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -579,44 +546,6 @@
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="126" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
